--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_7_40.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_7_40.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4116162.140794853</v>
+        <v>4111829.65597416</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>10087461.63830379</v>
+        <v>10087461.6383038</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283203</v>
+        <v>416855.1052283187</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7245929.464102756</v>
+        <v>7245929.464102754</v>
       </c>
     </row>
     <row r="11">
@@ -658,28 +658,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,25 +706,25 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>30.99636303581851</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>59.40597189539206</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -819,7 +819,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>58.41971245821871</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -828,10 +828,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>59.72683757586842</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -864,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -895,28 +895,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>122.2408134615584</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>124.5928256234899</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,7 +943,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
@@ -952,7 +952,7 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -995,7 +995,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1062,10 +1062,10 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>145.4879423048605</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>82.85374403943788</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1074,10 +1074,10 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1098,7 +1098,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1119,7 +1119,7 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1135,25 +1135,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>191.6063065997554</v>
+        <v>193.1267627447418</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1180,28 +1180,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1232,7 +1232,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1290,19 +1290,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>59.72683757586846</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1338,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1350,10 +1350,10 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>268.6413070582232</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1369,25 +1369,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634807</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710077</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.6830416206831</v>
+        <v>354.6830416206839</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722619</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417116</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187867</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,25 +1420,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695534</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576162</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881302</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.2409687174131</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.7311006784691</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560537</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1530,7 +1530,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>120.7871326503968</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -1539,13 +1539,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1584,7 +1584,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>20.38427178198063</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1606,22 +1606,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634807</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710077</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.6830416206831</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187867</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
         <v>283.1540821444137</v>
@@ -1657,25 +1657,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695534</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881287</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.2409687174149</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560537</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -1767,13 +1767,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -1785,7 +1785,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,19 +1812,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
-        <v>87.8205732060031</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>252.0847494365267</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1855,13 +1855,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417115</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187867</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1900,16 +1900,16 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.2409687174131</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.7311006784691</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -2001,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>140.7158229532361</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -2010,19 +2010,19 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.2658363185655</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2058,7 +2058,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>228.9553704673018</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2067,7 +2067,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2098,7 +2098,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444141</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2131,10 +2131,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695611</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
-        <v>199.0222304576162</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
         <v>250.9057009881286</v>
@@ -2177,7 +2177,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H21" t="n">
-        <v>83.81768903128565</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2210,10 +2210,10 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>117.0286782364138</v>
+        <v>117.0286782364134</v>
       </c>
       <c r="T21" t="n">
-        <v>188.3046392154444</v>
+        <v>188.3046392154443</v>
       </c>
       <c r="U21" t="n">
         <v>225.7478006422472</v>
@@ -2241,25 +2241,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922689</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.294712846224</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856602</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,13 +2286,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.3752467101224</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2307,7 +2307,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>205.2977868514197</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2335,7 +2335,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H23" t="n">
-        <v>283.1540821444141</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2368,10 +2368,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695611</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
-        <v>199.0222304576162</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U23" t="n">
         <v>250.9057009881286</v>
@@ -2414,7 +2414,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H24" t="n">
-        <v>83.81768903128565</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2447,10 +2447,10 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>117.0286782364138</v>
+        <v>117.0286782364134</v>
       </c>
       <c r="T24" t="n">
-        <v>188.3046392154444</v>
+        <v>188.3046392154443</v>
       </c>
       <c r="U24" t="n">
         <v>225.7478006422472</v>
@@ -2478,25 +2478,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>5.943178786488883</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.294712846224</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856602</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,10 +2523,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.3752467101224</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016449</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
@@ -2535,7 +2535,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2554,16 +2554,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
@@ -2605,16 +2605,16 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695524</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
-        <v>199.022230457616</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881287</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -2623,7 +2623,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -2712,16 +2712,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -2733,7 +2733,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>44.95889092250267</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2763,10 +2763,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>123.7971820797026</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
@@ -2949,28 +2949,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>134.1795292011422</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>9.146142788179397</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3012,7 +3012,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -3192,22 +3192,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3237,10 +3237,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>38.05096575280767</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
@@ -3255,7 +3255,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3280,7 +3280,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187859</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3319,7 +3319,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
         <v>250.9057009881286</v>
@@ -3429,22 +3429,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>21.35866177150567</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3480,7 +3480,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -3565,7 +3565,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174127</v>
       </c>
       <c r="X38" t="n">
         <v>369.731100678469</v>
@@ -3663,10 +3663,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>123.9815576456779</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -3675,13 +3675,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>132.473663369464</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3717,7 +3717,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3729,7 +3729,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3757,7 +3757,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H41" t="n">
-        <v>283.1540821444135</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3793,10 +3793,10 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
-        <v>199.0222304576155</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U41" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -3906,7 +3906,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
@@ -3915,10 +3915,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>75.55208621972906</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,22 +3945,22 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.1844743892441</v>
+        <v>253.2918698186439</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4140,19 +4140,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>80.33989744908955</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>43.34824157860975</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4191,10 +4191,10 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -4306,43 +4306,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>959.5129866402885</v>
+        <v>1591.868758816787</v>
       </c>
       <c r="C2" t="n">
-        <v>959.5129866402885</v>
+        <v>1222.906241876376</v>
       </c>
       <c r="D2" t="n">
-        <v>959.5129866402885</v>
+        <v>864.6405432696254</v>
       </c>
       <c r="E2" t="n">
-        <v>959.5129866402885</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F2" t="n">
-        <v>952.5674858910851</v>
+        <v>67.86638588177354</v>
       </c>
       <c r="G2" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H2" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I2" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4354,28 +4354,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2642.120401548716</v>
+        <v>2665.839633406284</v>
       </c>
       <c r="S2" t="n">
-        <v>2642.120401548716</v>
+        <v>2665.839633406284</v>
       </c>
       <c r="T2" t="n">
-        <v>2423.485734520778</v>
+        <v>2665.839633406284</v>
       </c>
       <c r="U2" t="n">
-        <v>2169.72394915887</v>
+        <v>2665.839633406284</v>
       </c>
       <c r="V2" t="n">
-        <v>2169.72394915887</v>
+        <v>2334.776746062713</v>
       </c>
       <c r="W2" t="n">
-        <v>2109.717916941302</v>
+        <v>1982.008090792599</v>
       </c>
       <c r="X2" t="n">
-        <v>1736.252158680222</v>
+        <v>1982.008090792599</v>
       </c>
       <c r="Y2" t="n">
-        <v>1346.11282670441</v>
+        <v>1591.868758816787</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170821</v>
       </c>
       <c r="C3" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359551</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747037</v>
       </c>
       <c r="E3" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692481</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961333</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102423999</v>
       </c>
       <c r="H3" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517452</v>
       </c>
       <c r="O3" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537796</v>
       </c>
       <c r="P3" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152625</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S3" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073962</v>
       </c>
       <c r="T3" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196741</v>
       </c>
       <c r="U3" t="n">
-        <v>2061.714576167582</v>
+        <v>2061.714576167581</v>
       </c>
       <c r="V3" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.562467935838</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y3" t="n">
-        <v>1156.713312237151</v>
+        <v>1156.71331223715</v>
       </c>
     </row>
     <row r="4">
@@ -4464,31 +4464,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="C4" t="n">
-        <v>520.9725150767609</v>
+        <v>559.1928012785273</v>
       </c>
       <c r="D4" t="n">
-        <v>370.8558756644252</v>
+        <v>409.0761618661916</v>
       </c>
       <c r="E4" t="n">
-        <v>222.942782082032</v>
+        <v>261.1630682837985</v>
       </c>
       <c r="F4" t="n">
-        <v>222.942782082032</v>
+        <v>114.2731207858881</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K4" t="n">
         <v>110.2451748866326</v>
@@ -4512,28 +4512,28 @@
         <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U4" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V4" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W4" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X4" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y4" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="5">
@@ -4543,43 +4543,43 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1095.807382993971</v>
+        <v>962.9693282917576</v>
       </c>
       <c r="C5" t="n">
-        <v>972.3318138408822</v>
+        <v>962.9693282917576</v>
       </c>
       <c r="D5" t="n">
-        <v>614.0661152341316</v>
+        <v>604.7036296850072</v>
       </c>
       <c r="E5" t="n">
-        <v>228.2778626358874</v>
+        <v>604.7036296850072</v>
       </c>
       <c r="F5" t="n">
-        <v>221.3323618866839</v>
+        <v>597.7581289358037</v>
       </c>
       <c r="G5" t="n">
-        <v>207.4089578252748</v>
+        <v>179.7943208339906</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>179.7943208339906</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4591,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862886</v>
+        <v>2465.942913862885</v>
       </c>
       <c r="T5" t="n">
-        <v>2465.942913862886</v>
+        <v>2465.942913862885</v>
       </c>
       <c r="U5" t="n">
-        <v>2212.181128500977</v>
+        <v>2465.942913862885</v>
       </c>
       <c r="V5" t="n">
-        <v>2212.181128500977</v>
+        <v>2465.942913862885</v>
       </c>
       <c r="W5" t="n">
-        <v>1859.412473230863</v>
+        <v>2113.174258592771</v>
       </c>
       <c r="X5" t="n">
-        <v>1485.946714969783</v>
+        <v>1739.708500331691</v>
       </c>
       <c r="Y5" t="n">
-        <v>1095.807382993971</v>
+        <v>1349.569168355879</v>
       </c>
     </row>
     <row r="6">
@@ -4643,7 +4643,7 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J6" t="n">
         <v>129.2001442204943</v>
@@ -4655,16 +4655,16 @@
         <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018223</v>
@@ -4701,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>698.7120650600561</v>
+        <v>500.1394333084169</v>
       </c>
       <c r="C7" t="n">
-        <v>529.7758821321493</v>
+        <v>331.20325038051</v>
       </c>
       <c r="D7" t="n">
-        <v>529.7758821321493</v>
+        <v>331.20325038051</v>
       </c>
       <c r="E7" t="n">
-        <v>382.8183646524922</v>
+        <v>183.2901567981169</v>
       </c>
       <c r="F7" t="n">
-        <v>235.9284171545819</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="G7" t="n">
-        <v>235.9284171545819</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="H7" t="n">
-        <v>235.9284171545819</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="I7" t="n">
-        <v>99.59950625323012</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
@@ -4746,31 +4746,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X7" t="n">
-        <v>698.7120650600561</v>
+        <v>500.1394333084169</v>
       </c>
       <c r="Y7" t="n">
-        <v>698.7120650600561</v>
+        <v>500.1394333084169</v>
       </c>
     </row>
     <row r="8">
@@ -4780,43 +4780,43 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1562.968440970219</v>
+        <v>631.9064409481871</v>
       </c>
       <c r="C8" t="n">
-        <v>1562.968440970219</v>
+        <v>262.9439240077754</v>
       </c>
       <c r="D8" t="n">
-        <v>1204.702742363469</v>
+        <v>262.9439240077754</v>
       </c>
       <c r="E8" t="n">
-        <v>818.9144897652247</v>
+        <v>262.9439240077754</v>
       </c>
       <c r="F8" t="n">
-        <v>625.3727659270879</v>
+        <v>67.86638588177354</v>
       </c>
       <c r="G8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.961649073312</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224068</v>
       </c>
       <c r="M8" t="n">
-        <v>1362.238747280443</v>
+        <v>1362.238747280442</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4828,28 +4828,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="S8" t="n">
-        <v>2520.971603332393</v>
+        <v>2465.942913862885</v>
       </c>
       <c r="T8" t="n">
-        <v>2302.336936304455</v>
+        <v>2465.942913862885</v>
       </c>
       <c r="U8" t="n">
-        <v>2302.336936304455</v>
+        <v>2465.942913862885</v>
       </c>
       <c r="V8" t="n">
-        <v>2302.336936304455</v>
+        <v>2134.880026519314</v>
       </c>
       <c r="W8" t="n">
-        <v>1949.568281034341</v>
+        <v>1782.1113712492</v>
       </c>
       <c r="X8" t="n">
-        <v>1949.568281034341</v>
+        <v>1408.645612988121</v>
       </c>
       <c r="Y8" t="n">
-        <v>1949.568281034341</v>
+        <v>1018.506281012309</v>
       </c>
     </row>
     <row r="9">
@@ -4880,7 +4880,7 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J9" t="n">
         <v>129.2001442204943</v>
@@ -4895,7 +4895,7 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
         <v>2188.831293537797</v>
@@ -4938,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>53.94298182036445</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="C10" t="n">
-        <v>53.94298182036445</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="D10" t="n">
-        <v>53.94298182036445</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036445</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
@@ -4986,28 +4986,28 @@
         <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T10" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U10" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V10" t="n">
-        <v>325.2978374347314</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W10" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X10" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y10" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="11">
@@ -5029,64 +5029,64 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362688</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192609</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.41387069471</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852258</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398596</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492581</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474786</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
         <v>4151.812499466574</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
         <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="12">
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,34 +5114,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797193</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>427.7414352191926</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>923.0670414349515</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>1520.445529061504</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N12" t="n">
-        <v>1731.250242493492</v>
+        <v>1700.311647517212</v>
       </c>
       <c r="O12" t="n">
-        <v>2283.159972732779</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P12" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>849.3843576263199</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C13" t="n">
-        <v>680.448174698413</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D13" t="n">
-        <v>530.3315352860773</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E13" t="n">
-        <v>382.4184417036842</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F13" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2264.108249235166</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2044.506784258107</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>2023.916610740955</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1769.232122535068</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1479.814952498107</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>1251.82540160009</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>1031.03282245656</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="14">
@@ -5257,70 +5257,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192609</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J14" t="n">
         <v>378.1925803111718</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.41387069471</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852258</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398596</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492581</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474786</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466576</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123005</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5342,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5351,25 +5351,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797193</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>427.7414352191926</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>923.0670414349515</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>1373.553594266881</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N15" t="n">
-        <v>2001.151557821488</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O15" t="n">
         <v>2553.061288060775</v>
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>929.7309773356195</v>
+        <v>950.7540666811332</v>
       </c>
       <c r="C16" t="n">
-        <v>929.7309773356195</v>
+        <v>781.8178837532263</v>
       </c>
       <c r="D16" t="n">
-        <v>779.6143379232838</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408906</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782958</v>
@@ -5445,7 +5445,7 @@
         <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
         <v>1665.560112570818</v>
@@ -5454,34 +5454,34 @@
         <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
         <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2358.255433877228</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T16" t="n">
-        <v>2138.653968900169</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="U16" t="n">
-        <v>1849.578742244367</v>
+        <v>2125.286319795768</v>
       </c>
       <c r="V16" t="n">
-        <v>1849.578742244367</v>
+        <v>1870.601831589881</v>
       </c>
       <c r="W16" t="n">
-        <v>1560.161572207407</v>
+        <v>1581.18466155292</v>
       </c>
       <c r="X16" t="n">
-        <v>1332.172021309389</v>
+        <v>1353.195110654903</v>
       </c>
       <c r="Y16" t="n">
-        <v>1111.379442165859</v>
+        <v>1132.402531511373</v>
       </c>
     </row>
     <row r="17">
@@ -5494,7 +5494,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
         <v>1590.547811004713</v>
@@ -5503,22 +5503,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.8166630479719</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5533,22 +5533,22 @@
         <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
         <v>3820.749612123003</v>
@@ -5579,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5588,34 +5588,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797191</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>427.7414352191926</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>867.8220324314344</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>1465.200520057987</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="N18" t="n">
-        <v>2092.798483612593</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O18" t="n">
-        <v>2092.798483612593</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P18" t="n">
-        <v>2516.421633107662</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>781.3544215660705</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C19" t="n">
-        <v>612.4182386381636</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D19" t="n">
-        <v>612.4182386381636</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E19" t="n">
-        <v>464.5051450557705</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F19" t="n">
-        <v>317.6151975578602</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854707</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.70136564882</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611859</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X19" t="n">
-        <v>1144.284195611859</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y19" t="n">
-        <v>923.4916164683292</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168618</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362691</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192464</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111672</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075719</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332418</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014804</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355956</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068023</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694715</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.26572885226</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
         <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="21">
@@ -5807,43 +5807,43 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>943.3991132778468</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C21" t="n">
-        <v>768.9460839967198</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D21" t="n">
-        <v>620.0116743354686</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300131</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F21" t="n">
-        <v>314.2396613568981</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G21" t="n">
-        <v>178.4809954028059</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797191</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>427.7414352191894</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L21" t="n">
-        <v>923.067041434944</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M21" t="n">
-        <v>1373.553594266891</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N21" t="n">
-        <v>2001.151557821493</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O21" t="n">
         <v>2553.061288060775</v>
@@ -5864,7 +5864,7 @@
         <v>2244.643795685161</v>
       </c>
       <c r="U21" t="n">
-        <v>2016.615714228346</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V21" t="n">
         <v>1781.463605996603</v>
@@ -5873,7 +5873,7 @@
         <v>1527.226249268401</v>
       </c>
       <c r="X21" t="n">
-        <v>1319.374749062869</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y21" t="n">
         <v>1111.614450297915</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3173.60104615397</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>3173.60104615397</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D22" t="n">
-        <v>3023.484406741634</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E22" t="n">
-        <v>2875.571313159241</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F22" t="n">
-        <v>2728.681365661331</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G22" t="n">
-        <v>2561.485266376211</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H22" t="n">
-        <v>2419.773435218409</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
-        <v>2337.686731866322</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>2417.922750296645</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>2679.612012822182</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>3070.01060699812</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
-        <v>3492.020309729152</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>3909.430181389158</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>4278.959462098141</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
-        <v>4571.634917671698</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>4690.833152398595</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>4623.787448650997</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>4623.787448650997</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>4623.787448650997</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>4334.712221995195</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>4080.027733789309</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>3790.610563752348</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>3562.621012854331</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>3355.24951098421</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5965,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551837</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611426</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004676</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406432</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168238</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362682</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797115</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192412</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111667</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075714</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332372</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014757</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355909</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291067985</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694677</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852221</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398557</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492541</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474746</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466536</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612122965</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852851</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591771</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615959</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="24">
@@ -6044,46 +6044,46 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>943.3991132778461</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C24" t="n">
-        <v>768.9460839967192</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D24" t="n">
-        <v>620.0116743354679</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300123</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F24" t="n">
-        <v>314.2396613568973</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G24" t="n">
-        <v>178.4809954028051</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797115</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797115</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797115</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797115</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>589.1422692637258</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M24" t="n">
-        <v>949.9304447718264</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N24" t="n">
-        <v>1577.528408326428</v>
+        <v>1700.311647517212</v>
       </c>
       <c r="O24" t="n">
-        <v>2129.438138565711</v>
+        <v>2252.221377756499</v>
       </c>
       <c r="P24" t="n">
         <v>2553.061288060775</v>
@@ -6095,7 +6095,7 @@
         <v>2553.061288060775</v>
       </c>
       <c r="S24" t="n">
-        <v>2434.850501963387</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T24" t="n">
         <v>2244.643795685161</v>
@@ -6104,7 +6104,7 @@
         <v>2016.615714228345</v>
       </c>
       <c r="V24" t="n">
-        <v>1781.463605996602</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W24" t="n">
         <v>1527.226249268401</v>
@@ -6113,7 +6113,7 @@
         <v>1319.374749062868</v>
       </c>
       <c r="Y24" t="n">
-        <v>1111.614450297914</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="25">
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3012.408157764255</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>3006.404946868812</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>2856.288307456476</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E25" t="n">
-        <v>2708.375213874083</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F25" t="n">
-        <v>2561.485266376173</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G25" t="n">
-        <v>2561.485266376173</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H25" t="n">
-        <v>2419.773435218371</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
-        <v>2337.686731866284</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>2417.922750296607</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>2679.612012822144</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>3070.010606998082</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
-        <v>3492.020309729114</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>3909.43018138912</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>4278.959462098102</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
-        <v>4571.634917671659</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>4690.833152398557</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>4623.787448650959</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>4440.932614305863</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>4221.331149328805</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>3932.255922673003</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>3932.255922673003</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>3642.838752636042</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>3414.849201738025</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>3194.056622594495</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6202,10 +6202,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D26" t="n">
         <v>1590.547811004712</v>
@@ -6217,19 +6217,19 @@
         <v>793.7736536168609</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J26" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075808</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6265,13 +6265,13 @@
         <v>3820.749612123001</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="27">
@@ -6314,19 +6314,19 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>1501.8401750111</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N27" t="n">
-        <v>2129.438138565707</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O27" t="n">
-        <v>2129.438138565707</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P27" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3158.973599365703</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C28" t="n">
-        <v>2990.037416437796</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D28" t="n">
-        <v>2839.920777025461</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E28" t="n">
-        <v>2692.007683443067</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F28" t="n">
-        <v>2692.007683443067</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G28" t="n">
-        <v>2524.811584157947</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>2383.099753000145</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>4440.9326143059</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T28" t="n">
-        <v>4440.9326143059</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U28" t="n">
-        <v>4151.857387650098</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V28" t="n">
-        <v>3897.172899444211</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W28" t="n">
-        <v>3607.75572940725</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X28" t="n">
-        <v>3379.766178509233</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y28" t="n">
-        <v>3158.973599365703</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="29">
@@ -6439,31 +6439,31 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
         <v>852.8523611075807</v>
@@ -6496,19 +6496,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="30">
@@ -6539,28 +6539,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>95.58405025273903</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>95.58405025273903</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L30" t="n">
-        <v>542.9134462654469</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M30" t="n">
-        <v>1140.291933891999</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N30" t="n">
-        <v>1767.889897446606</v>
+        <v>1963.765362972544</v>
       </c>
       <c r="O30" t="n">
-        <v>2319.799627685893</v>
+        <v>2515.675093211831</v>
       </c>
       <c r="P30" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
         <v>2553.061288060775</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>849.3843576263199</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C31" t="n">
-        <v>680.448174698413</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D31" t="n">
-        <v>530.3315352860773</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="E31" t="n">
-        <v>382.4184417036842</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="F31" t="n">
-        <v>235.5284942057738</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>244.7670222746419</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>103.0551911168399</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6645,28 +6645,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W31" t="n">
-        <v>1433.701365648819</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X31" t="n">
-        <v>1205.711814750802</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y31" t="n">
-        <v>984.9192356072716</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="32">
@@ -6694,28 +6694,28 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6776,28 +6776,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>95.58405025273903</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>95.58405025273903</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>590.9096564684977</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>1188.28814409505</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N33" t="n">
-        <v>1815.886107649656</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O33" t="n">
-        <v>2367.795837888943</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2367.795837888943</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
         <v>2553.061288060775</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1098.667160263527</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>929.7309773356195</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D34" t="n">
-        <v>779.6143379232838</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E34" t="n">
-        <v>631.7012443408906</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F34" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6885,25 +6885,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2341.482060890433</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2341.482060890433</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>2052.406834234631</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1797.722346028744</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1508.305175991783</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>1280.315625093766</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6919,19 +6919,19 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168604</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I35" t="n">
         <v>95.34095638192593</v>
@@ -6943,13 +6943,13 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
@@ -6958,7 +6958,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
@@ -7013,31 +7013,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>1072.713683962606</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="M36" t="n">
-        <v>1072.713683962606</v>
+        <v>1176.533952578166</v>
       </c>
       <c r="N36" t="n">
-        <v>1700.311647517212</v>
+        <v>1804.131916132773</v>
       </c>
       <c r="O36" t="n">
-        <v>2252.221377756499</v>
+        <v>2356.04164637206</v>
       </c>
       <c r="P36" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3046.798896214207</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>2877.8627132863</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D37" t="n">
-        <v>2856.288307456496</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E37" t="n">
-        <v>2708.375213874103</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F37" t="n">
-        <v>2561.485266376193</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G37" t="n">
-        <v>2561.485266376193</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>2419.773435218391</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>4440.9326143059</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>4221.331149328841</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>4221.331149328841</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>3966.646661122954</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>3677.229491085994</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>3449.239940187977</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>3228.447361044447</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7189,7 +7189,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7213,10 +7213,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7250,31 +7250,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>716.6687843969308</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>716.6687843969308</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N39" t="n">
-        <v>1344.266747951538</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O39" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P39" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q39" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1090.767110287001</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>921.8309273590944</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="D40" t="n">
-        <v>771.7142879467586</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E40" t="n">
-        <v>623.8011943643655</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F40" t="n">
-        <v>476.9112468664551</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G40" t="n">
-        <v>309.7151475813351</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7356,28 +7356,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>2044.506784258106</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1789.822296052219</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1500.405126015258</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>1272.415575117241</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>1272.415575117241</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7387,10 +7387,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D41" t="n">
         <v>1590.547811004712</v>
@@ -7399,13 +7399,13 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362684</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I41" t="n">
         <v>95.34095638192593</v>
@@ -7417,16 +7417,16 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7441,22 +7441,22 @@
         <v>4606.285157492578</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="42">
@@ -7490,28 +7490,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>589.1422692637306</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M42" t="n">
-        <v>949.9304447718133</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N42" t="n">
-        <v>1577.52840832642</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O42" t="n">
-        <v>2129.438138565707</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>803.2707707770319</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C43" t="n">
-        <v>634.334587849125</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="D43" t="n">
-        <v>484.2179484367892</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E43" t="n">
-        <v>484.2179484367892</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F43" t="n">
-        <v>337.3280009388789</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G43" t="n">
-        <v>170.1319016537588</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H43" t="n">
-        <v>170.1319016537588</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7593,28 +7593,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510508</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854706</v>
+        <v>2191.112710026075</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.701365648819</v>
+        <v>1936.428221820188</v>
       </c>
       <c r="W43" t="n">
-        <v>1433.701365648819</v>
+        <v>1647.011051783227</v>
       </c>
       <c r="X43" t="n">
-        <v>1205.711814750802</v>
+        <v>1419.02150088521</v>
       </c>
       <c r="Y43" t="n">
-        <v>984.9192356072716</v>
+        <v>1198.22892174168</v>
       </c>
     </row>
     <row r="44">
@@ -7627,70 +7627,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N44" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R44" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7724,31 +7724,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L45" t="n">
-        <v>589.1422692637307</v>
+        <v>740.5562989961525</v>
       </c>
       <c r="M45" t="n">
-        <v>1186.520756890282</v>
+        <v>740.5562989961525</v>
       </c>
       <c r="N45" t="n">
-        <v>1814.118720444889</v>
+        <v>1368.154262550759</v>
       </c>
       <c r="O45" t="n">
-        <v>2129.438138565707</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P45" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>768.5380889459586</v>
+        <v>802.9288273958734</v>
       </c>
       <c r="C46" t="n">
-        <v>599.6019060180517</v>
+        <v>633.9926444679666</v>
       </c>
       <c r="D46" t="n">
-        <v>599.6019060180517</v>
+        <v>483.8760050556308</v>
       </c>
       <c r="E46" t="n">
-        <v>451.6888124356586</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F46" t="n">
-        <v>304.7988649377482</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G46" t="n">
-        <v>137.6027656526282</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7806,52 +7806,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854707</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="V46" t="n">
-        <v>1688.385853854707</v>
+        <v>1722.776592304621</v>
       </c>
       <c r="W46" t="n">
-        <v>1398.968683817746</v>
+        <v>1433.359422267661</v>
       </c>
       <c r="X46" t="n">
-        <v>1170.979132919728</v>
+        <v>1205.369871369643</v>
       </c>
       <c r="Y46" t="n">
-        <v>950.1865537761984</v>
+        <v>984.5772922261132</v>
       </c>
     </row>
   </sheetData>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8069,7 +8069,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451751</v>
       </c>
       <c r="O3" t="n">
         <v>393.8623192767295</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>166.6588033951781</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8303,7 +8303,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>346.2692436516228</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
         <v>479.3423743435536</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747169</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8455,7 +8455,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711641</v>
       </c>
       <c r="L8" t="n">
         <v>417.6612145504504</v>
@@ -8543,10 +8543,10 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451761</v>
       </c>
       <c r="O9" t="n">
-        <v>274.4264991783522</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
@@ -9406,7 +9406,7 @@
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>4.627054295269772e-11</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
@@ -23418,7 +23418,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23427,16 +23427,16 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012164</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23472,7 +23472,7 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>265.8002026072635</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23655,13 +23655,13 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -23700,19 +23700,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012164</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>93.20571279564146</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>34.09972495271748</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23889,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>39.11615722870121</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -23898,19 +23898,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23946,7 +23946,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>57.22910392194231</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23955,7 +23955,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24129,25 +24129,25 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24177,10 +24177,10 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016449</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24195,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>13.28686650067507</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24366,25 +24366,25 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>161.3036423121389</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922689</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24423,7 +24423,7 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24600,16 +24600,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -24621,7 +24621,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>36.30694539606286</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24651,10 +24651,10 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>57.229103921942</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24837,28 +24837,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>45.65245098079512</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>72.11969353038614</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24900,7 +24900,7 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -25080,22 +25080,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25125,10 +25125,10 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>142.9753202488369</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25143,7 +25143,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25317,22 +25317,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>127.2568112467067</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25368,7 +25368,7 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25551,10 +25551,10 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>43.2652634529499</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -25563,13 +25563,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>7.821049476759839</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25605,7 +25605,7 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25617,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25794,7 +25794,7 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -25803,10 +25803,10 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>5.713750098836471</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,22 +25833,22 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>32.89260457060021</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -26028,22 +26028,22 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>66.09406519747962</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>96.9464712676141</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26079,10 +26079,10 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>609629.5575225913</v>
+        <v>609629.5575225909</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>609629.5575225906</v>
+        <v>609629.5575225909</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>609629.557522591</v>
+        <v>609629.5575225909</v>
       </c>
     </row>
     <row r="11">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>609629.5575225909</v>
+        <v>609629.5575225907</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>609629.5575225909</v>
+        <v>609629.557522591</v>
       </c>
     </row>
     <row r="16">
@@ -26313,46 +26313,46 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>821041.7698642832</v>
+      </c>
+      <c r="C2" t="n">
         <v>821041.7698642833</v>
       </c>
-      <c r="C2" t="n">
-        <v>821041.769864283</v>
-      </c>
       <c r="D2" t="n">
-        <v>821041.7698642828</v>
+        <v>821041.7698642833</v>
       </c>
       <c r="E2" t="n">
+        <v>807146.5996900063</v>
+      </c>
+      <c r="F2" t="n">
+        <v>807146.5996900061</v>
+      </c>
+      <c r="G2" t="n">
+        <v>807146.5996900063</v>
+      </c>
+      <c r="H2" t="n">
         <v>807146.5996900062</v>
       </c>
-      <c r="F2" t="n">
-        <v>807146.5996900062</v>
-      </c>
-      <c r="G2" t="n">
+      <c r="I2" t="n">
         <v>807146.5996900061</v>
       </c>
-      <c r="H2" t="n">
-        <v>807146.5996900063</v>
-      </c>
-      <c r="I2" t="n">
-        <v>807146.5996900062</v>
-      </c>
       <c r="J2" t="n">
-        <v>807146.5996900065</v>
+        <v>807146.599690006</v>
       </c>
       <c r="K2" t="n">
-        <v>807146.5996900063</v>
+        <v>807146.5996900061</v>
       </c>
       <c r="L2" t="n">
-        <v>807146.5996900062</v>
+        <v>807146.5996900061</v>
       </c>
       <c r="M2" t="n">
         <v>807146.5996900061</v>
       </c>
       <c r="N2" t="n">
-        <v>807146.5996900062</v>
+        <v>807146.5996900065</v>
       </c>
       <c r="O2" t="n">
-        <v>807146.5996900058</v>
+        <v>807146.5996900065</v>
       </c>
       <c r="P2" t="n">
         <v>807146.5996900061</v>
@@ -26374,22 +26374,22 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>944372.7777577093</v>
+        <v>944372.7777577088</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1.797263848857256e-10</v>
       </c>
       <c r="G3" t="n">
-        <v>2.622693742532512e-11</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>-5.47149954434038e-09</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>-8.72797609530001e-10</v>
+        <v>2.815770605185866e-11</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191926019</v>
+        <v>176423.2191925929</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>124208.5107080587</v>
+        <v>124208.5107080585</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26407,7 +26407,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>1.513344614068046e-10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -26420,28 +26420,28 @@
         <v>201064.5059277315</v>
       </c>
       <c r="C4" t="n">
-        <v>201064.5059277315</v>
+        <v>201064.5059277316</v>
       </c>
       <c r="D4" t="n">
         <v>201064.5059277315</v>
       </c>
       <c r="E4" t="n">
-        <v>5067.592601670375</v>
+        <v>5067.592601670394</v>
       </c>
       <c r="F4" t="n">
-        <v>5067.592601670318</v>
+        <v>5067.592601670437</v>
       </c>
       <c r="G4" t="n">
-        <v>5067.592601670396</v>
+        <v>5067.592601670437</v>
       </c>
       <c r="H4" t="n">
-        <v>5067.592601671082</v>
+        <v>5067.592601670437</v>
       </c>
       <c r="I4" t="n">
-        <v>5067.592601670431</v>
+        <v>5067.592601670438</v>
       </c>
       <c r="J4" t="n">
-        <v>5067.592601670478</v>
+        <v>5067.592601670437</v>
       </c>
       <c r="K4" t="n">
         <v>5067.592601670437</v>
@@ -26450,7 +26450,7 @@
         <v>5067.592601670437</v>
       </c>
       <c r="M4" t="n">
-        <v>5067.592601670469</v>
+        <v>5067.592601670438</v>
       </c>
       <c r="N4" t="n">
         <v>5067.592601670437</v>
@@ -26487,10 +26487,10 @@
         <v>101122.5298239071</v>
       </c>
       <c r="H5" t="n">
-        <v>101122.5298239069</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="I5" t="n">
-        <v>101122.5298239064</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="J5" t="n">
         <v>101122.5298239071</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-52849.69334140216</v>
+        <v>-52849.69334140228</v>
       </c>
       <c r="C6" t="n">
-        <v>537118.1858731421</v>
+        <v>537118.1858731423</v>
       </c>
       <c r="D6" t="n">
-        <v>537118.1858731419</v>
+        <v>537118.1858731423</v>
       </c>
       <c r="E6" t="n">
-        <v>-243416.3004932806</v>
+        <v>-243763.6797476369</v>
       </c>
       <c r="F6" t="n">
-        <v>700956.4772644287</v>
+        <v>700609.0980100714</v>
       </c>
       <c r="G6" t="n">
-        <v>700956.4772644285</v>
+        <v>700609.0980100721</v>
       </c>
       <c r="H6" t="n">
-        <v>700956.4772644354</v>
+        <v>700609.0980100718</v>
       </c>
       <c r="I6" t="n">
-        <v>700956.477264432</v>
+        <v>700609.0980100717</v>
       </c>
       <c r="J6" t="n">
-        <v>524533.258071827</v>
+        <v>524185.8788174787</v>
       </c>
       <c r="K6" t="n">
-        <v>700956.4772644287</v>
+        <v>700609.0980100717</v>
       </c>
       <c r="L6" t="n">
-        <v>700956.4772644287</v>
+        <v>700609.0980100717</v>
       </c>
       <c r="M6" t="n">
-        <v>576747.9665563699</v>
+        <v>576400.5873020132</v>
       </c>
       <c r="N6" t="n">
-        <v>700956.4772644287</v>
+        <v>700609.098010072</v>
       </c>
       <c r="O6" t="n">
-        <v>700956.4772644283</v>
+        <v>700609.098010072</v>
       </c>
       <c r="P6" t="n">
-        <v>700956.4772644285</v>
+        <v>700609.0980100717</v>
       </c>
     </row>
   </sheetData>
@@ -26709,16 +26709,16 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26755,10 +26755,10 @@
         <v>1367.975500341674</v>
       </c>
       <c r="H3" t="n">
-        <v>1367.975500341665</v>
+        <v>1367.975500341674</v>
       </c>
       <c r="I3" t="n">
-        <v>1367.975500341665</v>
+        <v>1367.975500341674</v>
       </c>
       <c r="J3" t="n">
         <v>1367.975500341674</v>
@@ -26789,28 +26789,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099639</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
         <v>1172.708288099648</v>
@@ -26922,13 +26922,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.27836717816564e-14</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>3.519713256482333e-14</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26940,7 +26940,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26968,22 +26968,22 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>990.2318361245875</v>
+        <v>990.2318361245872</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>-7.855076531724385e-12</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>8.86757334228605e-12</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27001,7 +27001,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>498.4210153450935</v>
+        <v>498.4210153450929</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27032,10 +27032,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>-1.484060160599118e-13</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545648</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>498.4210153450935</v>
+        <v>498.4210153450929</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27159,13 +27159,13 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>3.27836717816564e-14</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>3.519713256482333e-14</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>498.4210153450935</v>
+        <v>498.4210153450929</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,28 +27378,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
         <v>400</v>
       </c>
-      <c r="G2" t="n">
-        <v>0</v>
-      </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27426,25 +27426,25 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>23.4820395389932</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>289.834996822021</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27539,7 +27539,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>108.8271086404091</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27548,10 +27548,10 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>107.5829646831825</v>
       </c>
       <c r="H4" t="n">
         <v>156.1708888417951</v>
@@ -27584,7 +27584,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27615,28 +27615,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>243.0320783094492</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>27.33849062137138</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27672,7 +27672,7 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -27782,10 +27782,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0.946020341708703</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>62.56730398349336</v>
       </c>
       <c r="G7" t="n">
         <v>167.3098022590509</v>
@@ -27794,7 +27794,7 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27818,7 +27818,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R7" t="n">
         <v>146.6651919801579</v>
@@ -27839,7 +27839,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27855,25 +27855,25 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>215.269739141956</v>
+        <v>213.7492829969696</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27900,28 +27900,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28010,19 +28010,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>120.1051426060688</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
@@ -28031,10 +28031,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,10 +28055,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28070,10 +28070,10 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>17.88169127836778</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -28089,25 +28089,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-9.808078403369221e-14</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>-9.808078403369221e-14</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>-9.808078403369221e-14</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>-9.808078403369221e-14</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>-9.808078403369221e-14</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>-9.808078403369221e-14</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>-9.808078403369221e-14</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -28140,25 +28140,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>-9.808078403369221e-14</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>-9.808078403369221e-14</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>-9.808078403369221e-14</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>-9.808078403369221e-14</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>-9.808078403369221e-14</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>-9.808078403369221e-14</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>-9.808078403369221e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -28332,7 +28332,7 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>-4.108077959003719e-15</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -28341,7 +28341,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>-9.808078403369221e-14</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -28377,25 +28377,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>-9.808078403369221e-14</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>-9.808078403369221e-14</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>-1.932676241267473e-12</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>-9.808078403369221e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -28563,25 +28563,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-6.529711225203581e-14</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>-6.529711225203581e-14</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>-6.529711225203581e-14</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>-6.529711225203581e-14</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>-6.529711225203581e-14</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>-6.529711225203581e-14</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>-6.529711225203581e-14</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -28614,25 +28614,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>-6.529711225203581e-14</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>-6.529711225203581e-14</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>-6.529711225203581e-14</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>-6.529711225203581e-14</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>-6.529711225203581e-14</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>-6.529711225203581e-14</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>-6.529711225203581e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -29274,25 +29274,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -29325,25 +29325,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -30000,7 +30000,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>7.07318341828168e-13</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -31278,13 +31278,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
@@ -31302,22 +31302,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S5" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I6" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31390,16 +31390,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T6" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,19 +31436,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J7" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31460,13 +31460,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R7" t="n">
         <v>30.62819939701163</v>
@@ -31475,7 +31475,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31515,13 +31515,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
@@ -31539,22 +31539,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S8" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31594,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I9" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31627,16 +31627,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T9" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,19 +31673,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J10" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31697,13 +31697,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R10" t="n">
         <v>30.62819939701163</v>
@@ -31712,7 +31712,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862124</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N12" t="n">
-        <v>344.2757660550387</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437245</v>
+        <v>340.4395077511235</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P13" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,40 +31989,40 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162564</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
         <v>125.3175546292901</v>
@@ -32031,7 +32031,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32077,22 +32077,22 @@
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>597.170955974472</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437245</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
@@ -32104,7 +32104,7 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
@@ -32147,13 +32147,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
         <v>174.4056633796262</v>
@@ -32171,7 +32171,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P16" t="n">
         <v>298.3532140417315</v>
@@ -32183,7 +32183,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>583.0802355498154</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862124</v>
+        <v>416.4300581532626</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071787</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O18" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>561.87657862147</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P19" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348398</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
-        <v>56.32071997135304</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067218</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J20" t="n">
-        <v>466.7546155663252</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.544175081753</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162505</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175612</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159362</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626459968</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236456</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669184</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043703</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292892</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
-        <v>24.07361910651512</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U20" t="n">
-        <v>0.4399519197078717</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,31 +32542,31 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865943</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521082</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422555</v>
+        <v>175.6052721551106</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473031</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>597.1709559744902</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071735</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437197</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
@@ -32578,13 +32578,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742403</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
-        <v>11.86008947937726</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275942</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>2.466841066189887</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121556</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869227</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.405663379625</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355159</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588129</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.688550039202</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106764</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
-        <v>348.6767717920035</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P22" t="n">
-        <v>298.3532140417295</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515914</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
-        <v>110.9181446670471</v>
+        <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532738</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
-        <v>10.54013910099315</v>
+        <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467213</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,49 +32700,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348398</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
-        <v>56.32071997135304</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I23" t="n">
-        <v>212.0155798067218</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J23" t="n">
-        <v>466.7546155663252</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.544175081753</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162505</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175612</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159362</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626459968</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236456</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669184</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043703</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292892</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
-        <v>24.07361910651512</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U23" t="n">
-        <v>0.4399519197078717</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32779,34 +32779,34 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865943</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521082</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
         <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473031</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>506.5665344352512</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071735</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437197</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214661</v>
+        <v>437.8531046913764</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
@@ -32815,13 +32815,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742403</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
-        <v>11.86008947937726</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275942</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,49 +32858,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>2.466841066189887</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121556</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869227</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.405663379625</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355159</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588129</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.688550039202</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106764</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
-        <v>348.6767717920035</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P25" t="n">
-        <v>298.3532140417295</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515914</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
-        <v>110.9181446670471</v>
+        <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532738</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
-        <v>10.54013910099315</v>
+        <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467213</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33034,22 +33034,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>575.5951359912046</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>193.1175412796309</v>
       </c>
       <c r="O27" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33259,16 +33259,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>590.4022545401851</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
         <v>745.5466476862121</v>
@@ -33280,10 +33280,10 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>171.7382405950817</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>145.679503963964</v>
@@ -33496,13 +33496,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
         <v>638.8832749473072</v>
@@ -33514,13 +33514,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>327.118592441407</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>145.679503963964</v>
@@ -33733,7 +33733,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
@@ -33742,10 +33742,10 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M36" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
         <v>765.2790490071785</v>
@@ -33754,13 +33754,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>437.8531046913764</v>
+        <v>295.9743940159484</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33970,22 +33970,22 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>616.5397119226058</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>142.1340339220183</v>
+        <v>377.6350660745956</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O39" t="n">
         <v>700.0808204437243</v>
@@ -33997,7 +33997,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34210,31 +34210,31 @@
         <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>506.5665344352332</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>363.5371514786841</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34359,7 +34359,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34371,31 +34371,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34438,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>461.1007071927452</v>
+        <v>638.9422653403558</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34520,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34547,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34777,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34789,7 +34789,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355119</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
@@ -34798,7 +34798,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>130.3926104730631</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34950,10 +34950,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35014,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35023,19 +35023,19 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
-        <v>410.0055067279167</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
         <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P6" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535667</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35096,7 +35096,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35111,7 +35111,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35175,7 +35175,7 @@
         <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.2230414343413</v>
       </c>
       <c r="L8" t="n">
         <v>421.5361394435301</v>
@@ -35187,10 +35187,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35251,7 +35251,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35263,10 +35263,10 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O9" t="n">
-        <v>325.1459203262125</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P9" t="n">
         <v>339.6412258735646</v>
@@ -35333,7 +35333,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35348,7 +35348,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.587454168382</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,31 +35488,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674332</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>603.412613764194</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>212.9340539717054</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992801</v>
+        <v>197.843263306679</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789216</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35567,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35643,31 +35643,31 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367772</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462692</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902951</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243163</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.587454168382</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
         <v>129.8660843902405</v>
@@ -35725,22 +35725,22 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674332</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
-        <v>455.0369220524537</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992801</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35804,7 +35804,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
         <v>264.332588409635</v>
@@ -35816,7 +35816,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
         <v>373.2618997060455</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,31 +35962,31 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>444.5258557699412</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>603.412613764194</v>
+        <v>274.2960242312443</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238455</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071398</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789216</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236315892</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
-        <v>285.708711039639</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367724</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921463096</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902885</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193452</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.48865122431</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683761</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924689</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902382</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,22 +36199,22 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678965</v>
+        <v>37.76383318075158</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674289</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>455.0369220524719</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238402</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992753</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295225</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096331</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.342014319129</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010426</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
-        <v>421.6261329899049</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060432</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
-        <v>295.631773306623</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q22" t="n">
-        <v>120.402257299897</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236315892</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
-        <v>285.708711039639</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367724</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462633</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902885</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193452</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.48865122431</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683761</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924689</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902382</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,25 +36436,25 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674289</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>364.4325005132329</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238402</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992753</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071359</v>
+        <v>303.8786972770462</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36515,28 +36515,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295225</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096331</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.342014319129</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010426</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
-        <v>421.6261329899049</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060432</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
-        <v>295.631773306623</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q25" t="n">
-        <v>120.402257299897</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36609,7 +36609,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
         <v>559.5874541683811</v>
@@ -36682,22 +36682,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>433.4611020691863</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>61.77582919629761</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36843,7 +36843,7 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193519</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
         <v>696.488651224316</v>
@@ -36907,16 +36907,16 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>451.847874760311</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
@@ -36928,10 +36928,10 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>37.7638331807514</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37144,13 +37144,13 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
         <v>500.328895167433</v>
@@ -37162,13 +37162,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>187.1368183553855</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37381,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37390,10 +37390,10 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
         <v>633.9373369238452</v>
@@ -37402,13 +37402,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>303.8786972770462</v>
+        <v>161.9999866016181</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37557,10 +37557,10 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
         <v>371.5675334924728</v>
@@ -37618,22 +37618,22 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>477.9853321427316</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>235.5010321525773</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>557.4845759992799</v>
@@ -37645,7 +37645,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37858,31 +37858,31 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>364.4325005132149</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>220.9409070342396</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,34 +38092,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>318.5044627483008</v>
+        <v>496.3460208959114</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38174,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_7_40.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_7_40.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4111829.65597416</v>
+        <v>4113590.186276946</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283187</v>
+        <v>416855.1052283185</v>
       </c>
     </row>
     <row r="9">
@@ -661,25 +661,25 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,16 +706,16 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>30.99636303581851</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>75.30729779173569</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -724,10 +724,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -819,7 +819,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>59.66385641544537</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -831,7 +831,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>59.72683757586842</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -907,16 +907,16 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>124.5928256234899</v>
+        <v>25.73468253713871</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,10 +943,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -955,7 +955,7 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -995,7 +995,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1059,16 +1059,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>82.85374403943788</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1077,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853701</v>
+        <v>8.715333384834466</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1098,7 +1098,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1119,7 +1119,7 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1138,13 +1138,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>60.46179076613115</v>
       </c>
       <c r="F8" t="n">
-        <v>193.1267627447418</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>13.784170020795</v>
@@ -1180,10 +1180,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1232,7 +1232,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1290,19 +1290,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>59.72683757586846</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>101.780687729549</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1359,7 +1359,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1375,10 +1375,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.6830416206839</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722609</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -1423,7 +1423,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576173</v>
       </c>
       <c r="U11" t="n">
         <v>250.9057009881286</v>
@@ -1530,22 +1530,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>120.7871326503968</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1618,7 +1618,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
         <v>409.8033385187866</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1770,22 +1770,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,16 +1812,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>252.0847494365267</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2058,7 +2058,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>228.9553704673018</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2098,7 +2098,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2244,22 +2244,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,13 +2286,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>51.36569740310337</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2493,10 +2493,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>83.06560892428168</v>
+        <v>1.79977260571614</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2605,13 +2605,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
-        <v>250.9057009881287</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2724,7 +2724,7 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>9.146142788179874</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
@@ -2760,10 +2760,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>123.7971820797026</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2970,7 +2970,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>9.146142788179397</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,10 +2997,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>123.797182079703</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3204,7 +3204,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3243,7 +3243,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>286.1844743892441</v>
+        <v>228.9553704673023</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3435,13 +3435,13 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="G37" t="n">
-        <v>108.2950343703266</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3520,7 +3520,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3565,7 +3565,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
         <v>369.731100678469</v>
@@ -3663,22 +3663,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>123.9815576456779</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>83.06560892428213</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3754,7 +3754,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H41" t="n">
         <v>283.1540821444137</v>
@@ -3909,16 +3909,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3948,13 +3948,13 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>253.2918698186439</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -3966,7 +3966,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>16.93966244919601</v>
       </c>
     </row>
     <row r="44">
@@ -4143,16 +4143,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>80.33989744908955</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4191,7 +4191,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>160.6789846282037</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4306,43 +4306,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1591.868758816787</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="C2" t="n">
-        <v>1222.906241876376</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="D2" t="n">
-        <v>864.6405432696254</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="E2" t="n">
-        <v>478.8522906713811</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F2" t="n">
-        <v>67.86638588177354</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G2" t="n">
-        <v>53.94298182036444</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036444</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K2" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4354,28 +4354,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2665.839633406284</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2665.839633406284</v>
+        <v>2566.052423981306</v>
       </c>
       <c r="T2" t="n">
-        <v>2665.839633406284</v>
+        <v>2347.417756953369</v>
       </c>
       <c r="U2" t="n">
-        <v>2665.839633406284</v>
+        <v>2093.65597159146</v>
       </c>
       <c r="V2" t="n">
-        <v>2334.776746062713</v>
+        <v>1762.593084247889</v>
       </c>
       <c r="W2" t="n">
-        <v>1982.008090792599</v>
+        <v>1409.824428977775</v>
       </c>
       <c r="X2" t="n">
-        <v>1982.008090792599</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="Y2" t="n">
-        <v>1591.868758816787</v>
+        <v>1036.358670716696</v>
       </c>
     </row>
     <row r="3">
@@ -4385,49 +4385,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170821</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359551</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747037</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692481</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961333</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102423999</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I3" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517452</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537796</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152625</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4436,25 +4436,25 @@
         <v>2646.935720430047</v>
       </c>
       <c r="S3" t="n">
-        <v>2488.762748073962</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T3" t="n">
-        <v>2289.884200196741</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U3" t="n">
-        <v>2061.714576167581</v>
+        <v>2061.714576167582</v>
       </c>
       <c r="V3" t="n">
-        <v>1826.562467935838</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y3" t="n">
-        <v>1156.71331223715</v>
+        <v>1156.713312237151</v>
       </c>
     </row>
     <row r="4">
@@ -4467,28 +4467,28 @@
         <v>728.1289842064342</v>
       </c>
       <c r="C4" t="n">
-        <v>559.1928012785273</v>
+        <v>667.8624625746712</v>
       </c>
       <c r="D4" t="n">
-        <v>409.0761618661916</v>
+        <v>517.7458231623355</v>
       </c>
       <c r="E4" t="n">
-        <v>261.1630682837985</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="F4" t="n">
-        <v>114.2731207858881</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J4" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K4" t="n">
         <v>110.2451748866326</v>
@@ -4543,31 +4543,31 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>962.9693282917576</v>
+        <v>863.1126181035243</v>
       </c>
       <c r="C5" t="n">
-        <v>962.9693282917576</v>
+        <v>863.1126181035243</v>
       </c>
       <c r="D5" t="n">
-        <v>604.7036296850072</v>
+        <v>504.8469194967738</v>
       </c>
       <c r="E5" t="n">
-        <v>604.7036296850072</v>
+        <v>504.8469194967738</v>
       </c>
       <c r="F5" t="n">
-        <v>597.7581289358037</v>
+        <v>93.86101470716619</v>
       </c>
       <c r="G5" t="n">
-        <v>179.7943208339906</v>
+        <v>79.93761064575709</v>
       </c>
       <c r="H5" t="n">
-        <v>179.7943208339906</v>
+        <v>79.93761064575709</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
         <v>463.9616490733126</v>
@@ -4591,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548715</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862885</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T5" t="n">
-        <v>2465.942913862885</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U5" t="n">
-        <v>2465.942913862885</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V5" t="n">
-        <v>2465.942913862885</v>
+        <v>2366.086203674652</v>
       </c>
       <c r="W5" t="n">
-        <v>2113.174258592771</v>
+        <v>2013.317548404538</v>
       </c>
       <c r="X5" t="n">
-        <v>1739.708500331691</v>
+        <v>1639.851790143458</v>
       </c>
       <c r="Y5" t="n">
-        <v>1349.569168355879</v>
+        <v>1249.712458167646</v>
       </c>
     </row>
     <row r="6">
@@ -4643,7 +4643,7 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
         <v>129.2001442204943</v>
@@ -4701,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>500.1394333084169</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="C7" t="n">
-        <v>331.20325038051</v>
+        <v>529.7758821321493</v>
       </c>
       <c r="D7" t="n">
-        <v>331.20325038051</v>
+        <v>379.6592427198135</v>
       </c>
       <c r="E7" t="n">
-        <v>183.2901567981169</v>
+        <v>231.7461491374204</v>
       </c>
       <c r="F7" t="n">
-        <v>99.5995062532301</v>
+        <v>231.7461491374204</v>
       </c>
       <c r="G7" t="n">
-        <v>99.5995062532301</v>
+        <v>62.7463488757528</v>
       </c>
       <c r="H7" t="n">
-        <v>99.5995062532301</v>
+        <v>62.7463488757528</v>
       </c>
       <c r="I7" t="n">
-        <v>99.5995062532301</v>
+        <v>62.7463488757528</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
@@ -4746,31 +4746,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="W7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="X7" t="n">
-        <v>500.1394333084169</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="Y7" t="n">
-        <v>500.1394333084169</v>
+        <v>698.7120650600561</v>
       </c>
     </row>
     <row r="8">
@@ -4780,40 +4780,40 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>631.9064409481871</v>
+        <v>863.1126181035243</v>
       </c>
       <c r="C8" t="n">
-        <v>262.9439240077754</v>
+        <v>494.1501011631125</v>
       </c>
       <c r="D8" t="n">
-        <v>262.9439240077754</v>
+        <v>135.884402556362</v>
       </c>
       <c r="E8" t="n">
-        <v>262.9439240077754</v>
+        <v>74.81188663097703</v>
       </c>
       <c r="F8" t="n">
-        <v>67.86638588177354</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.710838053314</v>
       </c>
       <c r="K8" t="n">
-        <v>463.961649073312</v>
+        <v>463.9616490733125</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224068</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M8" t="n">
-        <v>1362.238747280442</v>
+        <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
         <v>1836.345445977174</v>
@@ -4828,28 +4828,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548715</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2465.942913862885</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T8" t="n">
-        <v>2465.942913862885</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U8" t="n">
-        <v>2465.942913862885</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V8" t="n">
-        <v>2134.880026519314</v>
+        <v>2366.086203674652</v>
       </c>
       <c r="W8" t="n">
-        <v>1782.1113712492</v>
+        <v>2013.317548404538</v>
       </c>
       <c r="X8" t="n">
-        <v>1408.645612988121</v>
+        <v>1639.851790143458</v>
       </c>
       <c r="Y8" t="n">
-        <v>1018.506281012309</v>
+        <v>1249.712458167646</v>
       </c>
     </row>
     <row r="9">
@@ -4880,7 +4880,7 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
         <v>129.2001442204943</v>
@@ -4938,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>667.7988452409105</v>
+        <v>325.6879402326643</v>
       </c>
       <c r="C10" t="n">
-        <v>498.8626623130036</v>
+        <v>156.7517573047574</v>
       </c>
       <c r="D10" t="n">
-        <v>348.7460229006679</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E10" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
@@ -5007,7 +5007,7 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Y10" t="n">
-        <v>728.1289842064342</v>
+        <v>507.3364050629041</v>
       </c>
     </row>
     <row r="11">
@@ -5017,13 +5017,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551876</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E11" t="n">
         <v>1204.759558406469</v>
@@ -5047,13 +5047,13 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
         <v>3640.42229106801</v>
@@ -5062,7 +5062,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398593</v>
@@ -5071,22 +5071,22 @@
         <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="12">
@@ -5132,16 +5132,16 @@
         <v>1072.713683962606</v>
       </c>
       <c r="N12" t="n">
-        <v>1700.311647517212</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5178,19 +5178,19 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C13" t="n">
-        <v>391.8463960427007</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D13" t="n">
-        <v>241.729756630365</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E13" t="n">
-        <v>93.81666304797187</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F13" t="n">
-        <v>93.81666304797187</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G13" t="n">
-        <v>93.81666304797187</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H13" t="n">
         <v>93.81666304797187</v>
@@ -5260,10 +5260,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
         <v>793.7736536168611</v>
@@ -5275,13 +5275,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5290,7 +5290,7 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
@@ -5360,25 +5360,25 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L15" t="n">
-        <v>1072.713683962606</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="M15" t="n">
-        <v>1670.092171589158</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N15" t="n">
-        <v>2297.690135143765</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O15" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>950.7540666811332</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C16" t="n">
-        <v>781.8178837532263</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D16" t="n">
-        <v>631.7012443408905</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408905</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578601</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2379.917379832663</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>2125.286319795768</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1870.601831589881</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1581.18466155292</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>1353.195110654903</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>1132.402531511373</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="17">
@@ -5512,28 +5512,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
         <v>4562.265728852255</v>
@@ -5551,13 +5551,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5603,16 +5603,16 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>1344.266747951538</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N18" t="n">
-        <v>1344.266747951538</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190825</v>
+        <v>2222.001901828445</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5697,13 +5697,13 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U19" t="n">
         <v>1746.193029533436</v>
@@ -5728,10 +5728,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
         <v>1590.547811004712</v>
@@ -5740,22 +5740,22 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H20" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5767,7 +5767,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5785,19 +5785,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="21">
@@ -5834,19 +5834,19 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>280.8495004245706</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L21" t="n">
-        <v>776.1751066403293</v>
+        <v>352.5519571452614</v>
       </c>
       <c r="M21" t="n">
-        <v>1373.553594266881</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N21" t="n">
-        <v>2001.151557821488</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O21" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P21" t="n">
         <v>2553.061288060775</v>
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400712</v>
+        <v>931.4710609784063</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121643</v>
+        <v>762.5348780504994</v>
       </c>
       <c r="D22" t="n">
-        <v>344.9174178121643</v>
+        <v>612.4182386381636</v>
       </c>
       <c r="E22" t="n">
-        <v>344.9174178121643</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F22" t="n">
-        <v>344.9174178121643</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G22" t="n">
-        <v>177.7213185270443</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5934,28 +5934,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2395.078540748843</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>2395.078540748843</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>2106.003314093041</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648819</v>
+        <v>1851.318825887154</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611858</v>
+        <v>1561.901655850193</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138411</v>
+        <v>1333.912104952176</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703109</v>
+        <v>1113.119525808646</v>
       </c>
     </row>
     <row r="23">
@@ -6077,13 +6077,13 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M24" t="n">
-        <v>1072.713683962606</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="N24" t="n">
-        <v>1700.311647517212</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O24" t="n">
-        <v>2252.221377756499</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P24" t="n">
         <v>2553.061288060775</v>
@@ -6141,7 +6141,7 @@
         <v>177.7213185270443</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6202,34 +6202,34 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075808</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6238,16 +6238,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
@@ -6259,19 +6259,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="27">
@@ -6308,25 +6308,25 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>577.3880777468471</v>
+        <v>484.8243144841094</v>
       </c>
       <c r="L27" t="n">
-        <v>1072.713683962606</v>
+        <v>980.1499206998682</v>
       </c>
       <c r="M27" t="n">
-        <v>1670.092171589158</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="N27" t="n">
-        <v>1731.250242493492</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O27" t="n">
-        <v>2283.159972732779</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6360,19 +6360,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>571.6607764188008</v>
+        <v>580.8993044876693</v>
       </c>
       <c r="C28" t="n">
-        <v>402.7245934908939</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="D28" t="n">
-        <v>402.7245934908939</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="E28" t="n">
-        <v>402.7245934908939</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G28" t="n">
         <v>235.5284942057738</v>
@@ -6384,52 +6384,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S28" t="n">
-        <v>2254.869721166297</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T28" t="n">
-        <v>2035.268256189238</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U28" t="n">
-        <v>1746.193029533436</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V28" t="n">
-        <v>1491.508541327549</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W28" t="n">
-        <v>1202.091371290588</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X28" t="n">
-        <v>974.1018203925706</v>
+        <v>983.3403484614391</v>
       </c>
       <c r="Y28" t="n">
-        <v>753.3092412490405</v>
+        <v>762.547769317909</v>
       </c>
     </row>
     <row r="29">
@@ -6454,25 +6454,25 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
         <v>2950.898526355937</v>
@@ -6481,10 +6481,10 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
@@ -6545,19 +6545,19 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>738.7889117913853</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>1336.167399417937</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N30" t="n">
-        <v>1963.765362972544</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O30" t="n">
-        <v>2515.675093211831</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
         <v>2553.061288060775</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>580.8993044876688</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C31" t="n">
-        <v>411.9631215597619</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D31" t="n">
-        <v>411.9631215597619</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E31" t="n">
-        <v>411.9631215597619</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F31" t="n">
-        <v>411.9631215597619</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G31" t="n">
-        <v>244.7670222746419</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>103.0551911168399</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2264.108249235165</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T31" t="n">
-        <v>2044.506784258106</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U31" t="n">
-        <v>1755.431557602304</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V31" t="n">
-        <v>1500.747069396417</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W31" t="n">
-        <v>1211.329899359456</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X31" t="n">
-        <v>983.3403484614387</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y31" t="n">
-        <v>762.5477693179085</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="32">
@@ -6697,19 +6697,19 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
         <v>2950.898526355937</v>
@@ -6718,10 +6718,10 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
@@ -6834,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C34" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D34" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E34" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F34" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G34" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
         <v>93.81666304797187</v>
@@ -6858,52 +6858,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="35">
@@ -6928,28 +6928,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J35" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
@@ -6958,7 +6958,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
@@ -7013,25 +7013,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>579.1554649516142</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>1176.533952578166</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N36" t="n">
-        <v>1804.131916132773</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O36" t="n">
-        <v>2356.04164637206</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P36" t="n">
         <v>2516.421633107662</v>
@@ -7083,10 +7083,10 @@
         <v>344.9174178121643</v>
       </c>
       <c r="F37" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H37" t="n">
         <v>93.81666304797187</v>
@@ -7156,28 +7156,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7192,7 +7192,7 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q38" t="n">
         <v>4562.265728852255</v>
@@ -7213,10 +7213,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7250,28 +7250,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>1307.627092998424</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N39" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q39" t="n">
         <v>2516.421633107662</v>
@@ -7308,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C40" t="n">
-        <v>388.6197041282753</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D40" t="n">
-        <v>388.6197041282753</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E40" t="n">
-        <v>240.7066105458822</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F40" t="n">
-        <v>93.81666304797187</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G40" t="n">
-        <v>93.81666304797187</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H40" t="n">
         <v>93.81666304797187</v>
@@ -7332,52 +7332,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="41">
@@ -7387,10 +7387,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
         <v>1590.547811004712</v>
@@ -7399,34 +7399,34 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7444,19 +7444,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="42">
@@ -7493,25 +7493,25 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>577.3880777468471</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L42" t="n">
-        <v>1072.713683962606</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M42" t="n">
-        <v>1670.092171589158</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N42" t="n">
-        <v>2297.690135143765</v>
+        <v>1963.765362972544</v>
       </c>
       <c r="O42" t="n">
-        <v>2516.421633107662</v>
+        <v>2515.675093211831</v>
       </c>
       <c r="P42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1016.58045691144</v>
+        <v>784.5811134804959</v>
       </c>
       <c r="C43" t="n">
-        <v>847.6442739835331</v>
+        <v>615.644930552589</v>
       </c>
       <c r="D43" t="n">
-        <v>697.5276345711974</v>
+        <v>465.5282911402533</v>
       </c>
       <c r="E43" t="n">
-        <v>549.6145409888043</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908939</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7596,25 +7596,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S43" t="n">
-        <v>2446.96308358026</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T43" t="n">
-        <v>2446.96308358026</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U43" t="n">
-        <v>2191.112710026075</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V43" t="n">
-        <v>1936.428221820188</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W43" t="n">
-        <v>1647.011051783227</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X43" t="n">
-        <v>1419.02150088521</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y43" t="n">
-        <v>1198.22892174168</v>
+        <v>966.2295783107356</v>
       </c>
     </row>
     <row r="44">
@@ -7651,16 +7651,16 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
         <v>3640.42229106801</v>
@@ -7724,28 +7724,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>245.2306927803937</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L45" t="n">
-        <v>740.5562989961525</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M45" t="n">
-        <v>740.5562989961525</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N45" t="n">
-        <v>1368.154262550759</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q45" t="n">
         <v>2516.421633107662</v>
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>802.9288273958734</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C46" t="n">
-        <v>633.9926444679666</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D46" t="n">
-        <v>483.8760050556308</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E46" t="n">
-        <v>402.7245934908939</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7830,28 +7830,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U46" t="n">
-        <v>1977.461080510508</v>
+        <v>1882.204779583153</v>
       </c>
       <c r="V46" t="n">
-        <v>1722.776592304621</v>
+        <v>1627.520291377266</v>
       </c>
       <c r="W46" t="n">
-        <v>1433.359422267661</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X46" t="n">
-        <v>1205.369871369643</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y46" t="n">
-        <v>984.5772922261132</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
   </sheetData>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8069,7 +8069,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
-        <v>359.9065542451751</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O3" t="n">
         <v>393.8623192767295</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8236,7 +8236,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q5" t="n">
-        <v>212.3149906599047</v>
+        <v>212.3149906599048</v>
       </c>
       <c r="R5" t="n">
         <v>65.71641987298243</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>90.64146763747169</v>
+        <v>90.64146763747166</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8452,10 +8452,10 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720736</v>
       </c>
       <c r="K8" t="n">
-        <v>324.1454125711641</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L8" t="n">
         <v>417.6612145504504</v>
@@ -8543,7 +8543,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>359.9065542451761</v>
+        <v>359.906554245176</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -23418,22 +23418,22 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>46.45968844823102</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I13" t="n">
         <v>81.26583631856553</v>
@@ -23658,22 +23658,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23703,13 +23703,13 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>34.09972495271748</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23946,7 +23946,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24132,22 +24132,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,13 +24174,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>129.6605885985412</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24381,10 +24381,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>57.22910392194221</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24612,7 +24612,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>136.2749052347514</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -24621,7 +24621,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,10 +24648,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
-        <v>57.229103921942</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24858,7 +24858,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>72.11969353038614</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,10 +24885,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>57.22910392194156</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -25092,10 +25092,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25131,7 +25131,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>57.22910392194188</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25323,13 +25323,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>62.35543909864957</v>
       </c>
       <c r="G37" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
         <v>81.26583631856553</v>
@@ -25551,25 +25551,25 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>43.2652634529499</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25797,16 +25797,16 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25836,13 +25836,13 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>32.89260457060021</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -25854,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>201.6449909028988</v>
       </c>
     </row>
     <row r="44">
@@ -26031,16 +26031,16 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>66.09406519747962</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26079,7 +26079,7 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.1844743892441</v>
+        <v>125.5054897610405</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>609629.557522591</v>
+        <v>609629.5575225909</v>
       </c>
     </row>
     <row r="7">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>609629.5575225907</v>
+        <v>609629.5575225909</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>609629.557522591</v>
+        <v>609629.5575225909</v>
       </c>
     </row>
     <row r="16">
@@ -26313,13 +26313,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>821041.7698642832</v>
+        <v>821041.7698642833</v>
       </c>
       <c r="C2" t="n">
         <v>821041.7698642833</v>
       </c>
       <c r="D2" t="n">
-        <v>821041.7698642833</v>
+        <v>821041.769864283</v>
       </c>
       <c r="E2" t="n">
         <v>807146.5996900063</v>
@@ -26328,31 +26328,31 @@
         <v>807146.5996900061</v>
       </c>
       <c r="G2" t="n">
-        <v>807146.5996900063</v>
+        <v>807146.5996900065</v>
       </c>
       <c r="H2" t="n">
         <v>807146.5996900062</v>
       </c>
       <c r="I2" t="n">
+        <v>807146.5996900062</v>
+      </c>
+      <c r="J2" t="n">
         <v>807146.5996900061</v>
       </c>
-      <c r="J2" t="n">
-        <v>807146.599690006</v>
-      </c>
       <c r="K2" t="n">
-        <v>807146.5996900061</v>
+        <v>807146.5996900062</v>
       </c>
       <c r="L2" t="n">
-        <v>807146.5996900061</v>
+        <v>807146.5996900065</v>
       </c>
       <c r="M2" t="n">
         <v>807146.5996900061</v>
       </c>
       <c r="N2" t="n">
-        <v>807146.5996900065</v>
+        <v>807146.5996900062</v>
       </c>
       <c r="O2" t="n">
-        <v>807146.5996900065</v>
+        <v>807146.5996900063</v>
       </c>
       <c r="P2" t="n">
         <v>807146.5996900061</v>
@@ -26377,7 +26377,7 @@
         <v>944372.7777577088</v>
       </c>
       <c r="F3" t="n">
-        <v>1.797263848857256e-10</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26386,10 +26386,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>2.815770605185866e-11</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925929</v>
+        <v>176423.2191925931</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,10 +26398,10 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>124208.5107080585</v>
+        <v>124208.5107080583</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>1.569592313899193e-10</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26420,37 +26420,37 @@
         <v>201064.5059277315</v>
       </c>
       <c r="C4" t="n">
-        <v>201064.5059277316</v>
+        <v>201064.5059277315</v>
       </c>
       <c r="D4" t="n">
         <v>201064.5059277315</v>
       </c>
       <c r="E4" t="n">
-        <v>5067.592601670394</v>
+        <v>5067.592601670478</v>
       </c>
       <c r="F4" t="n">
         <v>5067.592601670437</v>
       </c>
       <c r="G4" t="n">
-        <v>5067.592601670437</v>
+        <v>5067.592601670438</v>
       </c>
       <c r="H4" t="n">
         <v>5067.592601670437</v>
       </c>
       <c r="I4" t="n">
-        <v>5067.592601670438</v>
+        <v>5067.592601670437</v>
       </c>
       <c r="J4" t="n">
         <v>5067.592601670437</v>
       </c>
       <c r="K4" t="n">
-        <v>5067.592601670437</v>
+        <v>5067.592601670438</v>
       </c>
       <c r="L4" t="n">
         <v>5067.592601670437</v>
       </c>
       <c r="M4" t="n">
-        <v>5067.592601670438</v>
+        <v>5067.592601670437</v>
       </c>
       <c r="N4" t="n">
         <v>5067.592601670437</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-52849.69334140228</v>
+        <v>-52849.69334140213</v>
       </c>
       <c r="C6" t="n">
         <v>537118.1858731423</v>
       </c>
       <c r="D6" t="n">
-        <v>537118.1858731423</v>
+        <v>537118.1858731421</v>
       </c>
       <c r="E6" t="n">
-        <v>-243763.6797476369</v>
+        <v>-243451.0384187158</v>
       </c>
       <c r="F6" t="n">
-        <v>700609.0980100714</v>
+        <v>700921.739338993</v>
       </c>
       <c r="G6" t="n">
-        <v>700609.0980100721</v>
+        <v>700921.7393389933</v>
       </c>
       <c r="H6" t="n">
-        <v>700609.0980100718</v>
+        <v>700921.7393389931</v>
       </c>
       <c r="I6" t="n">
-        <v>700609.0980100717</v>
+        <v>700921.7393389931</v>
       </c>
       <c r="J6" t="n">
-        <v>524185.8788174787</v>
+        <v>524498.5201463999</v>
       </c>
       <c r="K6" t="n">
-        <v>700609.0980100717</v>
+        <v>700921.7393389931</v>
       </c>
       <c r="L6" t="n">
-        <v>700609.0980100717</v>
+        <v>700921.7393389933</v>
       </c>
       <c r="M6" t="n">
-        <v>576400.5873020132</v>
+        <v>576713.2286309346</v>
       </c>
       <c r="N6" t="n">
-        <v>700609.098010072</v>
+        <v>700921.739338993</v>
       </c>
       <c r="O6" t="n">
-        <v>700609.098010072</v>
+        <v>700921.7393389933</v>
       </c>
       <c r="P6" t="n">
-        <v>700609.0980100717</v>
+        <v>700921.739338993</v>
       </c>
     </row>
   </sheetData>
@@ -26789,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26928,7 +26928,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>3.519713256482333e-14</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26968,23 +26968,23 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>990.2318361245872</v>
+        <v>990.2318361245871</v>
       </c>
       <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
         <v>2.273736754432321e-13</v>
       </c>
-      <c r="G3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
@@ -26995,7 +26995,7 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>498.4210153450929</v>
+        <v>498.4210153450928</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>498.4210153450929</v>
+        <v>498.4210153450928</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27165,7 +27165,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>3.519713256482333e-14</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>498.4210153450929</v>
+        <v>498.4210153450928</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27381,25 +27381,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27426,16 +27426,16 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>23.4820395389932</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>99.10841501723584</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -27444,10 +27444,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27539,7 +27539,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>107.5829646831825</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27551,7 +27551,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>107.5829646831825</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>156.1708888417951</v>
@@ -27627,16 +27627,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
         <v>400</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>27.33849062137138</v>
+        <v>126.1966337077225</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27663,10 +27663,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
@@ -27675,7 +27675,7 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -27779,25 +27779,25 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>62.56730398349336</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>36.48462580370254</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,7 +27818,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.12274995491431</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>146.6651919801579</v>
@@ -27839,7 +27839,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27858,13 +27858,13 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>321.4685793061306</v>
       </c>
       <c r="F8" t="n">
-        <v>213.7492829969696</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
@@ -27900,10 +27900,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
@@ -28010,19 +28010,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>120.1051426060688</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>46.83478528866331</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
@@ -28031,10 +28031,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,7 +28055,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801579</v>
@@ -28079,7 +28079,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28098,7 +28098,7 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>9.003997547551989e-13</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -31278,13 +31278,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
@@ -31302,22 +31302,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31390,16 +31390,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,19 +31436,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31460,13 +31460,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
         <v>30.62819939701163</v>
@@ -31475,7 +31475,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31515,13 +31515,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
@@ -31539,22 +31539,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31594,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31627,16 +31627,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,19 +31673,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31697,13 +31697,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
         <v>30.62819939701163</v>
@@ -31712,7 +31712,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -31852,10 +31852,10 @@
         <v>142.1340339220183</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>368.6279838366855</v>
       </c>
       <c r="O12" t="n">
-        <v>340.4395077511235</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
         <v>561.8765786214698</v>
@@ -31864,7 +31864,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
         <v>54.65449286742438</v>
@@ -31989,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -32001,31 +32001,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32068,10 +32068,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
@@ -32080,37 +32080,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862122</v>
+        <v>583.1096135868578</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32150,25 +32150,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32177,19 +32177,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32323,7 +32323,7 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>416.4300581532626</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
         <v>131.3417120833333</v>
@@ -32332,10 +32332,10 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>468.3778278510275</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
@@ -32554,10 +32554,10 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>175.6052721551106</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>248.7449369209195</v>
       </c>
       <c r="M21" t="n">
         <v>745.5466476862121</v>
@@ -32569,7 +32569,7 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
@@ -32797,16 +32797,16 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>142.1340339220183</v>
+        <v>652.0478969157701</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>437.8531046913764</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
@@ -32937,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32949,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33016,10 +33016,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
         <v>99.52238</v>
@@ -33028,37 +33028,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>381.6404378718164</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>193.1175412796309</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33098,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33125,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33186,31 +33186,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33253,10 +33253,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
         <v>99.52238</v>
@@ -33265,22 +33265,22 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>465.7451325200306</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P30" t="n">
-        <v>171.7382405950817</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
@@ -33289,13 +33289,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33335,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33362,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33423,31 +33423,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33490,10 +33490,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
         <v>99.52238</v>
@@ -33502,16 +33502,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
         <v>400.5469039565762</v>
@@ -33526,13 +33526,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33572,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33599,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33733,7 +33733,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
@@ -33742,7 +33742,7 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
         <v>745.5466476862121</v>
@@ -33751,10 +33751,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>363.5371514786841</v>
       </c>
       <c r="P36" t="n">
-        <v>295.9743940159484</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
@@ -33885,7 +33885,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33897,31 +33897,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33964,49 +33964,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
-        <v>377.6350660745956</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N39" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>363.5371514786841</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34046,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34073,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34213,7 +34213,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
         <v>638.8832749473072</v>
@@ -34225,16 +34225,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>363.5371514786841</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>171.7382405950817</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34444,31 +34444,31 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>638.9422653403558</v>
+        <v>363.5371514786841</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>182.6892564418561</v>
@@ -34777,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34789,7 +34789,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>439.8839133355119</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
@@ -34798,7 +34798,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34950,13 +34950,13 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q5" t="n">
-        <v>153.9975062898689</v>
+        <v>153.997506289869</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35014,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770689</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35029,7 +35029,7 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
         <v>339.6412258735646</v>
@@ -35096,7 +35096,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35111,7 +35111,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35172,10 +35172,10 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181308</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343413</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
         <v>421.5361394435301</v>
@@ -35187,10 +35187,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35251,7 +35251,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770689</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35266,7 +35266,7 @@
         <v>439.8839133355128</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
         <v>339.6412258735646</v>
@@ -35333,7 +35333,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35348,7 +35348,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35500,10 +35500,10 @@
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>237.2862717533522</v>
       </c>
       <c r="O12" t="n">
-        <v>197.843263306679</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
         <v>427.9021712071395</v>
@@ -35512,7 +35512,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35728,28 +35728,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>440.9755796648395</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35886,7 +35886,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L17" t="n">
         <v>632.0799921462688</v>
@@ -35971,7 +35971,7 @@
         <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>274.2960242312443</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
@@ -35980,10 +35980,10 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>334.4034204366973</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36144,7 +36144,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36202,10 +36202,10 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>37.76383318075158</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>110.1905571410453</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
@@ -36217,7 +36217,7 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36445,16 +36445,16 @@
         <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>509.9138629937518</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>303.8786972770462</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36676,28 +36676,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>337.2977496678996</v>
+        <v>243.7989988974574</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>61.77582919629761</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36752,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36913,22 +36913,22 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>334.4034204366973</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P30" t="n">
-        <v>37.7638331807514</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -36989,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37153,13 +37153,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
         <v>257.9506595121318</v>
@@ -37226,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37381,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37390,7 +37390,7 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
@@ -37399,10 +37399,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>220.9409070342396</v>
       </c>
       <c r="P36" t="n">
-        <v>161.9999866016181</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
         <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37627,25 +37627,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
-        <v>235.5010321525773</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>220.9409070342396</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37791,7 +37791,7 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193519</v>
       </c>
       <c r="O41" t="n">
         <v>696.488651224316</v>
@@ -37861,7 +37861,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>500.328895167433</v>
@@ -37873,16 +37873,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>220.9409070342396</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>37.7638331807514</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38092,31 +38092,31 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>496.3460208959114</v>
+        <v>220.9409070342396</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>37.00975247789211</v>
